--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>2</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83689,6 +83689,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>448.6499938964844</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>454.25</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>438.7000122070312</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>438.7000122070312</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>39672202</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>436</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>444.4500122070312</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>440.6000061035156</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>440.6000061035156</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>54394722</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3600,13 +3600,13 @@
         <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -5454,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="R181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -10774,7 +10774,7 @@
         <v>2</v>
       </c>
       <c r="R184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -11390,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="R195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -11558,7 +11558,7 @@
         <v>2</v>
       </c>
       <c r="R198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -12062,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -13070,7 +13070,7 @@
         <v>2</v>
       </c>
       <c r="R225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -14470,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="R257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -15870,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="R290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -17046,7 +17046,7 @@
         <v>2</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -18838,7 +18838,7 @@
         <v>2</v>
       </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -19734,7 +19734,7 @@
         <v>2</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -20742,7 +20742,7 @@
         <v>2</v>
       </c>
       <c r="R362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="R366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="R381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -21918,7 +21918,7 @@
         <v>1</v>
       </c>
       <c r="R383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -22814,7 +22814,7 @@
         <v>2</v>
       </c>
       <c r="R399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="R410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -24326,7 +24326,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -25166,7 +25166,7 @@
         <v>2</v>
       </c>
       <c r="R441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -25670,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="R450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -25894,7 +25894,7 @@
         <v>2</v>
       </c>
       <c r="R454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -26174,7 +26174,7 @@
         <v>1</v>
       </c>
       <c r="R459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -26510,7 +26510,7 @@
         <v>2</v>
       </c>
       <c r="R465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -27574,7 +27574,7 @@
         <v>2</v>
       </c>
       <c r="R484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -28078,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="R493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -29366,7 +29366,7 @@
         <v>2</v>
       </c>
       <c r="R516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -29534,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="R519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -29870,7 +29870,7 @@
         <v>2</v>
       </c>
       <c r="R525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -32166,7 +32166,7 @@
         <v>1</v>
       </c>
       <c r="R566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -32838,7 +32838,7 @@
         <v>2</v>
       </c>
       <c r="R578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="R586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -33622,7 +33622,7 @@
         <v>1</v>
       </c>
       <c r="R592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -34854,7 +34854,7 @@
         <v>2</v>
       </c>
       <c r="R614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -35526,7 +35526,7 @@
         <v>2</v>
       </c>
       <c r="R626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36590,7 +36590,7 @@
         <v>1</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -37542,7 +37542,7 @@
         <v>1</v>
       </c>
       <c r="R662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="R670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38942,7 +38942,7 @@
         <v>2</v>
       </c>
       <c r="R687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39446,7 +39446,7 @@
         <v>1</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -40790,7 +40790,7 @@
         <v>2</v>
       </c>
       <c r="R720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -41350,7 +41350,7 @@
         <v>1</v>
       </c>
       <c r="R730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -42302,7 +42302,7 @@
         <v>1</v>
       </c>
       <c r="R747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -42582,7 +42582,7 @@
         <v>2</v>
       </c>
       <c r="R752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -43254,7 +43254,7 @@
         <v>2</v>
       </c>
       <c r="R764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -44430,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -45214,7 +45214,7 @@
         <v>1</v>
       </c>
       <c r="R799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -45886,7 +45886,7 @@
         <v>1</v>
       </c>
       <c r="R811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -47006,7 +47006,7 @@
         <v>2</v>
       </c>
       <c r="R831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="R841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48350,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="R855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -48798,7 +48798,7 @@
         <v>1</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -49134,7 +49134,7 @@
         <v>2</v>
       </c>
       <c r="R869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -49806,7 +49806,7 @@
         <v>2</v>
       </c>
       <c r="R881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -49862,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="R882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="R889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -50926,7 +50926,7 @@
         <v>1</v>
       </c>
       <c r="R901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -52326,7 +52326,7 @@
         <v>1</v>
       </c>
       <c r="R926" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -53726,7 +53726,7 @@
         <v>1</v>
       </c>
       <c r="R951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -54790,7 +54790,7 @@
         <v>2</v>
       </c>
       <c r="R970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971">
@@ -55742,7 +55742,7 @@
         <v>1</v>
       </c>
       <c r="R987" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988">
@@ -55966,7 +55966,7 @@
         <v>2</v>
       </c>
       <c r="R991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992">
@@ -56302,7 +56302,7 @@
         <v>1</v>
       </c>
       <c r="R997" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -56750,7 +56750,7 @@
         <v>1</v>
       </c>
       <c r="R1005" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -57646,7 +57646,7 @@
         <v>1</v>
       </c>
       <c r="R1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -57982,7 +57982,7 @@
         <v>2</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -58766,7 +58766,7 @@
         <v>2</v>
       </c>
       <c r="R1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -59158,7 +59158,7 @@
         <v>1</v>
       </c>
       <c r="R1048" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -59382,7 +59382,7 @@
         <v>2</v>
       </c>
       <c r="R1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -60670,7 +60670,7 @@
         <v>2</v>
       </c>
       <c r="R1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -61734,7 +61734,7 @@
         <v>2</v>
       </c>
       <c r="R1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095">
@@ -61846,7 +61846,7 @@
         <v>1</v>
       </c>
       <c r="R1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -62126,7 +62126,7 @@
         <v>2</v>
       </c>
       <c r="R1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -62966,7 +62966,7 @@
         <v>2</v>
       </c>
       <c r="R1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -63078,7 +63078,7 @@
         <v>1</v>
       </c>
       <c r="R1118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -63582,7 +63582,7 @@
         <v>1</v>
       </c>
       <c r="R1127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132">
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="R1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -64310,7 +64310,7 @@
         <v>2</v>
       </c>
       <c r="R1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -66830,7 +66830,7 @@
         <v>1</v>
       </c>
       <c r="R1185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -67614,7 +67614,7 @@
         <v>2</v>
       </c>
       <c r="R1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200">
@@ -68566,7 +68566,7 @@
         <v>1</v>
       </c>
       <c r="R1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -68846,7 +68846,7 @@
         <v>2</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -69574,7 +69574,7 @@
         <v>2</v>
       </c>
       <c r="R1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235">
@@ -69966,7 +69966,7 @@
         <v>1</v>
       </c>
       <c r="R1241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242">
@@ -70246,7 +70246,7 @@
         <v>2</v>
       </c>
       <c r="R1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247">
@@ -70862,7 +70862,7 @@
         <v>1</v>
       </c>
       <c r="R1257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258">
@@ -71142,7 +71142,7 @@
         <v>2</v>
       </c>
       <c r="R1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263">
@@ -72094,7 +72094,7 @@
         <v>1</v>
       </c>
       <c r="R1279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280">
@@ -72878,7 +72878,7 @@
         <v>2</v>
       </c>
       <c r="R1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -74502,7 +74502,7 @@
         <v>2</v>
       </c>
       <c r="R1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -74782,7 +74782,7 @@
         <v>1</v>
       </c>
       <c r="R1327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -75230,7 +75230,7 @@
         <v>2</v>
       </c>
       <c r="R1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1336">
@@ -76294,7 +76294,7 @@
         <v>2</v>
       </c>
       <c r="R1354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -76798,7 +76798,7 @@
         <v>1</v>
       </c>
       <c r="R1363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -77134,7 +77134,7 @@
         <v>2</v>
       </c>
       <c r="R1369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -77638,7 +77638,7 @@
         <v>2</v>
       </c>
       <c r="R1378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -78870,7 +78870,7 @@
         <v>2</v>
       </c>
       <c r="R1400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -79038,7 +79038,7 @@
         <v>1</v>
       </c>
       <c r="R1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
@@ -79374,7 +79374,7 @@
         <v>2</v>
       </c>
       <c r="R1409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -79766,7 +79766,7 @@
         <v>1</v>
       </c>
       <c r="R1416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -80046,7 +80046,7 @@
         <v>2</v>
       </c>
       <c r="R1421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -80494,7 +80494,7 @@
         <v>1</v>
       </c>
       <c r="R1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -81782,7 +81782,7 @@
         <v>2</v>
       </c>
       <c r="R1452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -82174,7 +82174,7 @@
         <v>1</v>
       </c>
       <c r="R1459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83686,7 +83686,7 @@
         <v>2</v>
       </c>
       <c r="R1486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1487">
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,495 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>441</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>442.25</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>437.9219055175781</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>44129433</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>440.7000122070312</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>426.8500061035156</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>39356401</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>436.3999938964844</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>412.8500061035156</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>414.1499938964844</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>414.1499938964844</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>45937961</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>415</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>444.7000122070312</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>444.7000122070312</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>82639905</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>446.9500122070312</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>471</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>107764220</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>446</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>452.8999938964844</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>416.0499877929688</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>417.75</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>417.75</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>114901062</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>417.1000061035156</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>422.8999938964844</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>403.1000061035156</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>413.6499938964844</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>413.6499938964844</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>48046101</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>416.7000122070312</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>427.2999877929688</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>417.9500122070312</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>417.9500122070312</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>36892798</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>437.3999938964844</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>417</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>434.6499938964844</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>434.6499938964844</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>59708075</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/TATAPOWER.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1497"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="R127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="R151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="R181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -10774,7 +10774,7 @@
         <v>2</v>
       </c>
       <c r="R184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -11390,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="R195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -11558,7 +11558,7 @@
         <v>2</v>
       </c>
       <c r="R198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -12062,7 +12062,7 @@
         <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -13070,7 +13070,7 @@
         <v>2</v>
       </c>
       <c r="R225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -14470,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="R257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -15870,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="R290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -17046,7 +17046,7 @@
         <v>2</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="R309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -18838,7 +18838,7 @@
         <v>2</v>
       </c>
       <c r="R328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -19734,7 +19734,7 @@
         <v>2</v>
       </c>
       <c r="R344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -20742,7 +20742,7 @@
         <v>2</v>
       </c>
       <c r="R362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="R366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="R381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -21918,7 +21918,7 @@
         <v>1</v>
       </c>
       <c r="R383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -22814,7 +22814,7 @@
         <v>2</v>
       </c>
       <c r="R399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="R410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -24326,7 +24326,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -25166,7 +25166,7 @@
         <v>2</v>
       </c>
       <c r="R441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -25670,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="R450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -25894,7 +25894,7 @@
         <v>2</v>
       </c>
       <c r="R454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -26174,7 +26174,7 @@
         <v>1</v>
       </c>
       <c r="R459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -26510,7 +26510,7 @@
         <v>2</v>
       </c>
       <c r="R465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -27574,7 +27574,7 @@
         <v>2</v>
       </c>
       <c r="R484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -28078,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="R493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -29366,7 +29366,7 @@
         <v>2</v>
       </c>
       <c r="R516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -29534,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="R519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -29870,7 +29870,7 @@
         <v>2</v>
       </c>
       <c r="R525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -32166,7 +32166,7 @@
         <v>1</v>
       </c>
       <c r="R566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -32838,7 +32838,7 @@
         <v>2</v>
       </c>
       <c r="R578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="R586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -33622,7 +33622,7 @@
         <v>1</v>
       </c>
       <c r="R592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -34854,7 +34854,7 @@
         <v>2</v>
       </c>
       <c r="R614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -35526,7 +35526,7 @@
         <v>2</v>
       </c>
       <c r="R626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36590,7 +36590,7 @@
         <v>1</v>
       </c>
       <c r="R645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -37542,7 +37542,7 @@
         <v>1</v>
       </c>
       <c r="R662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="R670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -38942,7 +38942,7 @@
         <v>2</v>
       </c>
       <c r="R687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39446,7 +39446,7 @@
         <v>1</v>
       </c>
       <c r="R696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -40790,7 +40790,7 @@
         <v>2</v>
       </c>
       <c r="R720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -41350,7 +41350,7 @@
         <v>1</v>
       </c>
       <c r="R730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -42302,7 +42302,7 @@
         <v>1</v>
       </c>
       <c r="R747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -42582,7 +42582,7 @@
         <v>2</v>
       </c>
       <c r="R752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -43254,7 +43254,7 @@
         <v>2</v>
       </c>
       <c r="R764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -44430,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="R785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="R791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -45214,7 +45214,7 @@
         <v>1</v>
       </c>
       <c r="R799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -45886,7 +45886,7 @@
         <v>1</v>
       </c>
       <c r="R811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -47006,7 +47006,7 @@
         <v>2</v>
       </c>
       <c r="R831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="R841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48350,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="R855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -48798,7 +48798,7 @@
         <v>1</v>
       </c>
       <c r="R863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -49134,7 +49134,7 @@
         <v>2</v>
       </c>
       <c r="R869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -49806,7 +49806,7 @@
         <v>2</v>
       </c>
       <c r="R881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -49862,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="R882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="R889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -50926,7 +50926,7 @@
         <v>1</v>
       </c>
       <c r="R901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -52326,7 +52326,7 @@
         <v>1</v>
       </c>
       <c r="R926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -53726,7 +53726,7 @@
         <v>1</v>
       </c>
       <c r="R951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -54790,7 +54790,7 @@
         <v>2</v>
       </c>
       <c r="R970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -55742,7 +55742,7 @@
         <v>1</v>
       </c>
       <c r="R987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -55966,7 +55966,7 @@
         <v>2</v>
       </c>
       <c r="R991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -56302,7 +56302,7 @@
         <v>1</v>
       </c>
       <c r="R997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -56750,7 +56750,7 @@
         <v>1</v>
       </c>
       <c r="R1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006">
@@ -57646,7 +57646,7 @@
         <v>1</v>
       </c>
       <c r="R1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -57982,7 +57982,7 @@
         <v>2</v>
       </c>
       <c r="R1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -58766,7 +58766,7 @@
         <v>2</v>
       </c>
       <c r="R1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -59158,7 +59158,7 @@
         <v>1</v>
       </c>
       <c r="R1048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -59382,7 +59382,7 @@
         <v>2</v>
       </c>
       <c r="R1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -60670,7 +60670,7 @@
         <v>2</v>
       </c>
       <c r="R1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
@@ -61734,7 +61734,7 @@
         <v>2</v>
       </c>
       <c r="R1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095">
@@ -61846,7 +61846,7 @@
         <v>1</v>
       </c>
       <c r="R1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -62126,7 +62126,7 @@
         <v>2</v>
       </c>
       <c r="R1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -62966,7 +62966,7 @@
         <v>2</v>
       </c>
       <c r="R1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -63078,7 +63078,7 @@
         <v>1</v>
       </c>
       <c r="R1118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119">
@@ -63582,7 +63582,7 @@
         <v>1</v>
       </c>
       <c r="R1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132">
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="R1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -64310,7 +64310,7 @@
         <v>2</v>
       </c>
       <c r="R1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174">
@@ -66830,7 +66830,7 @@
         <v>1</v>
       </c>
       <c r="R1185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -67614,7 +67614,7 @@
         <v>2</v>
       </c>
       <c r="R1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -68566,7 +68566,7 @@
         <v>1</v>
       </c>
       <c r="R1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -68846,7 +68846,7 @@
         <v>2</v>
       </c>
       <c r="R1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -69574,7 +69574,7 @@
         <v>2</v>
       </c>
       <c r="R1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -69966,7 +69966,7 @@
         <v>1</v>
       </c>
       <c r="R1241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242">
@@ -70246,7 +70246,7 @@
         <v>2</v>
       </c>
       <c r="R1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -70862,7 +70862,7 @@
         <v>1</v>
       </c>
       <c r="R1257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258">
@@ -71142,7 +71142,7 @@
         <v>2</v>
       </c>
       <c r="R1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -72094,7 +72094,7 @@
         <v>1</v>
       </c>
       <c r="R1279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -72878,7 +72878,7 @@
         <v>2</v>
       </c>
       <c r="R1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -74502,7 +74502,7 @@
         <v>2</v>
       </c>
       <c r="R1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -74782,7 +74782,7 @@
         <v>1</v>
       </c>
       <c r="R1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -75230,7 +75230,7 @@
         <v>2</v>
       </c>
       <c r="R1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -76294,7 +76294,7 @@
         <v>2</v>
       </c>
       <c r="R1354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -76798,7 +76798,7 @@
         <v>1</v>
       </c>
       <c r="R1363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364">
@@ -77134,7 +77134,7 @@
         <v>2</v>
       </c>
       <c r="R1369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -77638,7 +77638,7 @@
         <v>2</v>
       </c>
       <c r="R1378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -78870,7 +78870,7 @@
         <v>2</v>
       </c>
       <c r="R1400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401">
@@ -79038,7 +79038,7 @@
         <v>1</v>
       </c>
       <c r="R1403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
@@ -79374,7 +79374,7 @@
         <v>2</v>
       </c>
       <c r="R1409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410">
@@ -79766,7 +79766,7 @@
         <v>1</v>
       </c>
       <c r="R1416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -80046,7 +80046,7 @@
         <v>2</v>
       </c>
       <c r="R1421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422">
@@ -80494,7 +80494,7 @@
         <v>1</v>
       </c>
       <c r="R1429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -81782,7 +81782,7 @@
         <v>2</v>
       </c>
       <c r="R1452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453">
@@ -82174,7 +82174,7 @@
         <v>1</v>
       </c>
       <c r="R1459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460">
@@ -83686,7 +83686,7 @@
         <v>2</v>
       </c>
       <c r="R1486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>1</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84061,7 +84069,7 @@
         <v>31</v>
       </c>
       <c r="O1493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1493" t="n">
         <v>0</v>
@@ -84069,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84123,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84231,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84285,7 +84301,1569 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>436.75</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>414.3500061035156</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>417</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>52278693</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>417</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>449.6000061035156</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>411.2999877929688</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>441.7999877929688</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>88556499</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>451.8999938964844</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>430.7999877929688</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>444.1499938964844</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>51168725</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>494.8500061035156</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>485.5</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>134889273</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>485.3999938964844</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>491.2000122070312</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>460.6000061035156</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>466.6499938964844</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>59207679</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>477.8999938964844</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>438.7000122070312</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>461.1499938964844</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>85453471</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>463.7999877929688</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>474.3999938964844</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>453.5499877929688</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>50365587</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>455.5499877929688</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>62477641</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>423.5</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>448.4500122070312</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>445.4500122070312</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>62092742</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>446.25</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>425.8500061035156</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>432.75</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>53941693</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>431.9500122070312</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>396.9500122070312</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>404.6499938964844</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>43709222</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>417.7999877929688</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>397.3999938964844</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>413.75</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>44101128</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>421.4500122070312</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>423.4500122070312</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>408</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>414.1499938964844</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>53717437</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>413</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>412</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>56888250</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>443</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>447.7000122070312</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>43168460</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>430.3999938964844</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>400.0499877929688</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>401.1000061035156</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>34456200</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>404.8500061035156</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>408</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>396.8500061035156</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>399</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>30420346</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>399.6000061035156</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>402.9500122070312</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>396.6499938964844</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>62612421</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>397</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>397</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>356.3500061035156</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>43163555</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>375.3999938964844</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>338.3999938964844</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>373.6000061035156</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>45522592</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>374.8500061035156</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>352.1499938964844</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>363.3999938964844</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>27316927</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>361</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>379</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>342.9500122070312</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>368.3999938964844</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>51276357</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>367</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>45464523</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>368.9500122070312</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>332</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>337.1499938964844</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>31973559</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>326.3500061035156</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>36057669</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>356</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>339.2000122070312</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>22629535</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>331.8500061035156</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>31395967</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>362.7999877929688</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>344.2999877929688</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>350.75</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>26548145</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>350.7999877929688</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>381.8999938964844</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>349</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>379.5</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>24111288</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>386.0499877929688</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>372.3500061035156</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>375.3999938964844</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>33034884</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
